--- a/Projects/CCRU/Data/KPIs for DB - Spirits.xlsx
+++ b/Projects/CCRU/Data/KPIs for DB - Spirits.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="44">
   <si>
     <t xml:space="preserve">KPI Level 1 Name</t>
   </si>
@@ -46,103 +46,106 @@
     <t xml:space="preserve">Cinzano Bianco - 0.5L</t>
   </si>
   <si>
+    <t xml:space="preserve">Old Smuggler - 0.7L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirits Shelf: Aperetive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirits Shelf: Sparkling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirits Shelf: Vermouth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirits Shelf: Whiskey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campari Display Any </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirits 2018 - HoReCa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available Campari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available Aperol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wild Turkey 101 - 0.7L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wild Turkey 81 - 0.7L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espolon Blanco - 0.7L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espolon Reposado - 0.7L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available Bushmills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mondoro Bruit - 0.75L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mondoro Rose - 0.75L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cinzano Prosecco - 0.75L</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cinzano Bianco - 1.0L</t>
   </si>
   <si>
-    <t xml:space="preserve">Old Smuggler - 0.7L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirits Shelf: Aperetive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirits Shelf: Sparkling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirits Shelf: Vermouth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirits Shelf: Whiskey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campari Display Any </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirits 2018 - HoReCa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Available Campari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Available Aperol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wild Turkey 101 - 0.7L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wild Turkey 81 - 0.7L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Espolon Blanco - 0.7L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Espolon Reposado - 0.7L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Available Bushmills</t>
+    <t xml:space="preserve">Cinzano Rosso - 1.0L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activation Aperetive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activation Sparkling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activation Vermouth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activation Whiskey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activation Tequila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promo activation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirits 2018 - FT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cinzano Bianco - 0.5L/Cinzano Bianco - 1.0L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bushmills - 0.5L/Old Smuggler - 0.7L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirits 2018 - MT - Hypermarket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campari - 0.75L</t>
   </si>
   <si>
     <t xml:space="preserve">Mondoro Asti - 0.75L</t>
   </si>
   <si>
+    <t xml:space="preserve">Mondoro Asti - 0.75L GP</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mondoro Prosecco - 0.75L</t>
   </si>
   <si>
-    <t xml:space="preserve">Cinzano Prosecco - 0.75L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cinzano Rosso - 1.0L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activation Aperetive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activation Sparkling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activation Vermouth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activation Whiskey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activation Tequila</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Promo activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirits 2018 - FT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bushmills - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirits 2018 - MT - Hypermarket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campari - 0.75L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mondoro Asti - 0.75L GP</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bushmills - 0.7L GP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jose Cuervo Silver - 0.7L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jose Cuervo Reposado - 0.7L</t>
   </si>
   <si>
     <t xml:space="preserve">Spirits Shelf: Tequila</t>
@@ -261,18 +264,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.7953488372093"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.9953488372093"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.7953488372093"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="13.1674418604651"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.7813953488372"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.2279069767442"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.2883720930233"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="13.4139534883721"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -300,7 +303,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -314,7 +317,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -328,7 +331,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>0.07</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -356,7 +359,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -370,7 +373,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -384,7 +387,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -412,26 +415,27 @@
         <v>13</v>
       </c>
       <c r="D10" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="0" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>0</v>
-      </c>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>16</v>
@@ -440,13 +444,13 @@
         <v>16</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>17</v>
@@ -455,13 +459,13 @@
         <v>17</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>18</v>
@@ -470,13 +474,13 @@
         <v>18</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>19</v>
@@ -485,13 +489,13 @@
         <v>19</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>20</v>
@@ -500,13 +504,13 @@
         <v>20</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>21</v>
@@ -515,13 +519,13 @@
         <v>21</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>22</v>
@@ -536,7 +540,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>23</v>
@@ -545,43 +549,43 @@
         <v>23</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>25</v>
@@ -590,19 +594,19 @@
         <v>25</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>0.01</v>
@@ -611,72 +615,71 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="E25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>0.05</v>
       </c>
-      <c r="E26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>0.1</v>
@@ -684,30 +687,30 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -715,13 +718,13 @@
         <v>33</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -729,13 +732,13 @@
         <v>33</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -743,80 +746,80 @@
         <v>33</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>0.15</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>0.07</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>0.05</v>
@@ -824,13 +827,13 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>0.05</v>
@@ -838,13 +841,13 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>0.04</v>
@@ -852,41 +855,41 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>0.04</v>
@@ -894,27 +897,27 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>0.02</v>
@@ -922,13 +925,13 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>0.03</v>
@@ -936,13 +939,13 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>0.03</v>
@@ -950,13 +953,13 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>0.02</v>
@@ -964,351 +967,309 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>0.03</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>0.03</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>0.1</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>0.1</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>0.1</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>0.07</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>0.07</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>0.02</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B69" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="B69" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="C69" s="0" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>0.2</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B71" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C71" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" s="0" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B72" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C72" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D72" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B73" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C73" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D73" s="0" t="n">
         <v>0</v>
       </c>
     </row>
